--- a/Winter.xlsx
+++ b/Winter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoraguiardesouzapenha/Desktop/Ketones/Birds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D52B7925-599C-DD4C-8E82-9ECB770E1A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2457EA-C873-074B-8AEB-CAA7414028D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{B8441E02-2B63-154A-8260-5456E7C9F7B7}"/>
   </bookViews>
@@ -815,8 +815,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1195,7 +1196,7 @@
   <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1258,7 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>44226</v>
       </c>
       <c r="D2">
@@ -1307,7 +1308,7 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>44223</v>
       </c>
       <c r="D3">
@@ -1357,7 +1358,7 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>44221</v>
       </c>
       <c r="D4">
@@ -1407,7 +1408,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>44223</v>
       </c>
       <c r="D5">
@@ -1457,7 +1458,7 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>44221</v>
       </c>
       <c r="D6">
@@ -1507,7 +1508,7 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>44221</v>
       </c>
       <c r="D7">
@@ -1557,7 +1558,7 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>44221</v>
       </c>
       <c r="D8">
@@ -1607,7 +1608,7 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>44221</v>
       </c>
       <c r="D9">
@@ -1657,7 +1658,7 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>44221</v>
       </c>
       <c r="D10">
@@ -1707,7 +1708,7 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>44221</v>
       </c>
       <c r="D11">
@@ -1757,7 +1758,7 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>44221</v>
       </c>
       <c r="D12">
@@ -1807,7 +1808,7 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>44221</v>
       </c>
       <c r="D13">
@@ -1857,7 +1858,7 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>44221</v>
       </c>
       <c r="D14">
@@ -1907,7 +1908,7 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>44221</v>
       </c>
       <c r="D15">
@@ -1957,7 +1958,7 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>44221</v>
       </c>
       <c r="D16">
@@ -2007,7 +2008,7 @@
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>44221</v>
       </c>
       <c r="D17">
@@ -2057,7 +2058,7 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>44221</v>
       </c>
       <c r="D18">
@@ -2107,7 +2108,7 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>44221</v>
       </c>
       <c r="D19">
@@ -2157,7 +2158,7 @@
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>44221</v>
       </c>
       <c r="D20">
@@ -2207,7 +2208,7 @@
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>44221</v>
       </c>
       <c r="D21">
@@ -2257,7 +2258,7 @@
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>44221</v>
       </c>
       <c r="D22">
@@ -2307,7 +2308,7 @@
       <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>44221</v>
       </c>
       <c r="D23">
@@ -2357,7 +2358,7 @@
       <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>44221</v>
       </c>
       <c r="D24">
@@ -2407,7 +2408,7 @@
       <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>44221</v>
       </c>
       <c r="D25">
@@ -2457,7 +2458,7 @@
       <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>44221</v>
       </c>
       <c r="D26">
@@ -2507,7 +2508,7 @@
       <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>44221</v>
       </c>
       <c r="D27">
@@ -2557,7 +2558,7 @@
       <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>44221</v>
       </c>
       <c r="D28">
@@ -2607,7 +2608,7 @@
       <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>44221</v>
       </c>
       <c r="D29">
@@ -2657,7 +2658,7 @@
       <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>44221</v>
       </c>
       <c r="D30">
@@ -2707,7 +2708,7 @@
       <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>44221</v>
       </c>
       <c r="D31">
@@ -2757,7 +2758,7 @@
       <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>44221</v>
       </c>
       <c r="D32">
@@ -2807,7 +2808,7 @@
       <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>44222</v>
       </c>
       <c r="D33">
@@ -2857,7 +2858,7 @@
       <c r="B34" t="s">
         <v>48</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>44222</v>
       </c>
       <c r="D34">
@@ -2907,7 +2908,7 @@
       <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>44222</v>
       </c>
       <c r="D35">
@@ -2957,7 +2958,7 @@
       <c r="B36" t="s">
         <v>48</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>44222</v>
       </c>
       <c r="D36">
@@ -3007,7 +3008,7 @@
       <c r="B37" t="s">
         <v>48</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>44222</v>
       </c>
       <c r="D37">
@@ -3057,7 +3058,7 @@
       <c r="B38" t="s">
         <v>48</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>44222</v>
       </c>
       <c r="D38">
@@ -3107,7 +3108,7 @@
       <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>44222</v>
       </c>
       <c r="D39">
@@ -3157,7 +3158,7 @@
       <c r="B40" t="s">
         <v>48</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>44222</v>
       </c>
       <c r="D40">
@@ -3207,7 +3208,7 @@
       <c r="B41" t="s">
         <v>48</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>44222</v>
       </c>
       <c r="D41">
@@ -3257,7 +3258,7 @@
       <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>44222</v>
       </c>
       <c r="D42">
@@ -3307,7 +3308,7 @@
       <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>44222</v>
       </c>
       <c r="D43">
@@ -3357,7 +3358,7 @@
       <c r="B44" t="s">
         <v>48</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>44222</v>
       </c>
       <c r="D44">
@@ -3407,7 +3408,7 @@
       <c r="B45" t="s">
         <v>48</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>44222</v>
       </c>
       <c r="D45">
@@ -3457,7 +3458,7 @@
       <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>44222</v>
       </c>
       <c r="D46">
@@ -3507,7 +3508,7 @@
       <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>44222</v>
       </c>
       <c r="D47">
@@ -3557,7 +3558,7 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>44222</v>
       </c>
       <c r="D48">
@@ -3607,7 +3608,7 @@
       <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>44222</v>
       </c>
       <c r="D49">
@@ -3657,7 +3658,7 @@
       <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>44222</v>
       </c>
       <c r="D50">
@@ -3707,7 +3708,7 @@
       <c r="B51" t="s">
         <v>48</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>44222</v>
       </c>
       <c r="D51">
@@ -3757,7 +3758,7 @@
       <c r="B52" t="s">
         <v>48</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>44222</v>
       </c>
       <c r="D52">
@@ -3807,7 +3808,7 @@
       <c r="B53" t="s">
         <v>48</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>44222</v>
       </c>
       <c r="D53">
@@ -3857,7 +3858,7 @@
       <c r="B54" t="s">
         <v>48</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>44222</v>
       </c>
       <c r="D54">
@@ -3907,7 +3908,7 @@
       <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>44223</v>
       </c>
       <c r="D55">
@@ -3957,7 +3958,7 @@
       <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>44223</v>
       </c>
       <c r="D56">
@@ -4007,7 +4008,7 @@
       <c r="B57" t="s">
         <v>16</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>44223</v>
       </c>
       <c r="D57">
@@ -4057,7 +4058,7 @@
       <c r="B58" t="s">
         <v>16</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>44223</v>
       </c>
       <c r="D58">
@@ -4107,7 +4108,7 @@
       <c r="B59" t="s">
         <v>16</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>44223</v>
       </c>
       <c r="D59">
@@ -4157,7 +4158,7 @@
       <c r="B60" t="s">
         <v>16</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>44223</v>
       </c>
       <c r="D60">
@@ -4207,7 +4208,7 @@
       <c r="B61" t="s">
         <v>16</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>44223</v>
       </c>
       <c r="D61">
@@ -4257,7 +4258,7 @@
       <c r="B62" t="s">
         <v>16</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>44223</v>
       </c>
       <c r="D62">
@@ -4307,7 +4308,7 @@
       <c r="B63" t="s">
         <v>48</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>44224</v>
       </c>
       <c r="D63">
@@ -4357,7 +4358,7 @@
       <c r="B64" t="s">
         <v>48</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>44224</v>
       </c>
       <c r="D64">
@@ -4407,7 +4408,7 @@
       <c r="B65" t="s">
         <v>48</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>44224</v>
       </c>
       <c r="D65">
@@ -4457,7 +4458,7 @@
       <c r="B66" t="s">
         <v>48</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>44224</v>
       </c>
       <c r="D66">
@@ -4507,7 +4508,7 @@
       <c r="B67" t="s">
         <v>48</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>44224</v>
       </c>
       <c r="D67">
@@ -4557,7 +4558,7 @@
       <c r="B68" t="s">
         <v>48</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>44224</v>
       </c>
       <c r="D68">
@@ -4607,7 +4608,7 @@
       <c r="B69" t="s">
         <v>16</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>44225</v>
       </c>
       <c r="D69">
@@ -4657,7 +4658,7 @@
       <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>44225</v>
       </c>
       <c r="D70">
@@ -4707,7 +4708,7 @@
       <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>44225</v>
       </c>
       <c r="D71">
@@ -4757,7 +4758,7 @@
       <c r="B72" t="s">
         <v>16</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>44225</v>
       </c>
       <c r="D72">
@@ -4807,7 +4808,7 @@
       <c r="B73" t="s">
         <v>16</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>44225</v>
       </c>
       <c r="D73">
@@ -4857,7 +4858,7 @@
       <c r="B74" t="s">
         <v>16</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>44226</v>
       </c>
       <c r="D74">
@@ -4907,7 +4908,7 @@
       <c r="B75" t="s">
         <v>16</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>44226</v>
       </c>
       <c r="D75">
@@ -4957,7 +4958,7 @@
       <c r="B76" t="s">
         <v>16</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>44226</v>
       </c>
       <c r="D76">
@@ -5007,7 +5008,7 @@
       <c r="B77" t="s">
         <v>16</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>44226</v>
       </c>
       <c r="D77">
@@ -5057,7 +5058,7 @@
       <c r="B78" t="s">
         <v>16</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>44226</v>
       </c>
       <c r="D78">
@@ -5107,7 +5108,7 @@
       <c r="B79" t="s">
         <v>16</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>44226</v>
       </c>
       <c r="D79">
@@ -5157,7 +5158,7 @@
       <c r="B80" t="s">
         <v>16</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>44226</v>
       </c>
       <c r="D80">
@@ -5207,7 +5208,7 @@
       <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>44226</v>
       </c>
       <c r="D81">
@@ -5257,7 +5258,7 @@
       <c r="B82" t="s">
         <v>16</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>44226</v>
       </c>
       <c r="D82">
@@ -5307,7 +5308,7 @@
       <c r="B83" t="s">
         <v>16</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>44226</v>
       </c>
       <c r="D83">
@@ -5357,7 +5358,7 @@
       <c r="B84" t="s">
         <v>16</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>44226</v>
       </c>
       <c r="D84">
@@ -5407,7 +5408,7 @@
       <c r="B85" t="s">
         <v>16</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>44226</v>
       </c>
       <c r="D85">
@@ -5457,7 +5458,7 @@
       <c r="B86" t="s">
         <v>16</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>44226</v>
       </c>
       <c r="D86">
@@ -5507,7 +5508,7 @@
       <c r="B87" t="s">
         <v>16</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>44226</v>
       </c>
       <c r="D87">
@@ -5557,7 +5558,7 @@
       <c r="B88" t="s">
         <v>18</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>44221</v>
       </c>
       <c r="D88">
